--- a/bin/excel/SpanishEnglish-VERBS19.xlsx
+++ b/bin/excel/SpanishEnglish-VERBS19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38320C44-5CAA-4574-8AC8-BCBABA2E11C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C7095-B175-4307-BA80-31FE23B0D910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="10425" windowHeight="7065" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>bles</t>
   </si>
   <si>
-    <t>lider</t>
-  </si>
-  <si>
     <t>jient</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>rriin</t>
+  </si>
+  <si>
+    <t>lierer</t>
   </si>
 </sst>
 </file>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E80C80-05A9-4CA4-AEA0-B97E37B4C112}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
